--- a/Data/UN Population Data/Latvia.xlsx
+++ b/Data/UN Population Data/Latvia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Please note the following:</t>
   </si>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -285,6 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -609,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1217,7 +1218,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="19" spans="7:11">
+    <row r="19" spans="7:17">
       <c r="G19" t="s">
         <v>51</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>1992663</v>
       </c>
     </row>
-    <row r="21" spans="7:11">
+    <row r="21" spans="7:17">
       <c r="G21" t="s">
         <v>56</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="7:11">
+    <row r="22" spans="7:17">
       <c r="G22" s="9">
         <f>SUM(E7:H7)*1000</f>
         <v>388763.00000000006</v>
@@ -1244,7 +1245,7 @@
         <v>1603899.9999999995</v>
       </c>
     </row>
-    <row r="24" spans="7:11">
+    <row r="24" spans="7:17">
       <c r="G24" t="s">
         <v>57</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="7:11">
+    <row r="25" spans="7:17">
       <c r="G25" s="10">
         <f>SUM(E7:G7)*1000</f>
         <v>301509</v>
@@ -1262,7 +1263,7 @@
         <v>1691153.9999999995</v>
       </c>
     </row>
-    <row r="27" spans="7:11">
+    <row r="27" spans="7:17">
       <c r="G27" s="11" t="s">
         <v>58</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="7:11">
+    <row r="28" spans="7:17">
       <c r="G28" s="10">
         <f>SUM(E7:L7)*1000</f>
         <v>926285</v>
@@ -1280,7 +1281,7 @@
         <v>1066378</v>
       </c>
     </row>
-    <row r="29" spans="7:11" ht="30">
+    <row r="29" spans="7:17" ht="30">
       <c r="G29" s="14" t="s">
         <v>52</v>
       </c>
@@ -1294,8 +1295,21 @@
       <c r="K29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="7:11">
+      <c r="M29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="7:17">
       <c r="G30" t="s">
         <v>49</v>
       </c>
@@ -1314,8 +1328,25 @@
         <f>ROUND(H30*(1-I30),0)</f>
         <v>602085</v>
       </c>
-    </row>
-    <row r="31" spans="7:11">
+      <c r="M30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="11">
+        <v>926285</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="P30" s="11">
+        <f>ROUND(N30*O30,0)</f>
+        <v>397376</v>
+      </c>
+      <c r="Q30" s="11">
+        <f>N30-P30</f>
+        <v>528909</v>
+      </c>
+    </row>
+    <row r="31" spans="7:17">
       <c r="G31" t="s">
         <v>50</v>
       </c>
@@ -1332,6 +1363,23 @@
       </c>
       <c r="K31" s="10">
         <f>ROUND(H31*(1-I31),0)</f>
+        <v>1029055</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="11">
+        <v>1066378</v>
+      </c>
+      <c r="O31" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P31" s="11">
+        <f>ROUND(N31*O31,0)</f>
+        <v>37323</v>
+      </c>
+      <c r="Q31" s="11">
+        <f>N31-P31</f>
         <v>1029055</v>
       </c>
     </row>
